--- a/07_渗透测试字典/端口/端口列表.xlsx
+++ b/07_渗透测试字典/端口/端口列表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="528">
   <si>
     <t>端口</t>
   </si>
@@ -4153,6 +4153,48 @@
         <charset val="134"/>
       </rPr>
       <t> FidoNet electronic mail and news netwo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNIX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：UNIX系统的特有的端口。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：已经提交到IANA组织进行注册的端口。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>未注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：未在IANA组织进行注册，仍然在广泛使用的端口。</t>
     </r>
   </si>
 </sst>
@@ -4166,7 +4208,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4175,9 +4217,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF009688"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4336,6 +4390,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4668,28 +4728,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4698,161 +4749,171 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4906,23 +4967,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4936,11 +4980,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E263" totalsRowShown="0">
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E263" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="端口" dataDxfId="0"/>
-    <tableColumn id="2" name="协议" dataDxfId="1"/>
-    <tableColumn id="3" name="名称" dataDxfId="2"/>
-    <tableColumn id="4" name="描述" dataDxfId="3"/>
-    <tableColumn id="5" name="入侵方式" dataDxfId="4"/>
+    <tableColumn id="1" name="端口"/>
+    <tableColumn id="2" name="协议"/>
+    <tableColumn id="3" name="名称"/>
+    <tableColumn id="4" name="描述"/>
+    <tableColumn id="5" name="入侵方式"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5235,20 +5279,20 @@
   </sheetPr>
   <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="36.7166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.8583333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.7166666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.8583333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.575" style="4" customWidth="1"/>
+    <col min="4" max="4" width="53.8583333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.8583333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+    <row r="1" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5261,3927 +5305,3927 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A2" s="8">
+    <row r="2" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A3" s="8">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A4" s="8">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A4" s="9">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A5" s="8">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A5" s="9">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A6" s="8">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A6" s="9">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A7" s="8">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A7" s="9">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A8" s="8">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A8" s="9">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A9" s="8">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A9" s="9">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A10" s="8">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A10" s="9">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A11" s="8">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A11" s="9">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A12" s="8">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A12" s="9">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A13" s="8">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A13" s="9">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A14" s="8">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A14" s="9">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A15" s="8">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A15" s="9">
         <v>23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A16" s="8">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:5">
+      <c r="A16" s="9">
         <v>25</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A17" s="8">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A17" s="9">
         <v>37</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A18" s="8">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A18" s="9">
         <v>39</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A19" s="8">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A19" s="9">
         <v>42</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A20" s="8">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A20" s="9">
         <v>43</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A21" s="8">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A21" s="9">
         <v>49</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A22" s="8">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A22" s="9">
         <v>50</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A23" s="8">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A23" s="9">
         <v>53</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A24" s="8">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A24" s="9">
         <v>63</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A25" s="8">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A25" s="9">
         <v>67</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A26" s="8">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A26" s="9">
         <v>68</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A27" s="8">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A27" s="9">
         <v>69</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A28" s="8">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A28" s="9">
         <v>70</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A29" s="8">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A29" s="9">
         <v>71</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A30" s="8">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A30" s="9">
         <v>72</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A31" s="8">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A31" s="9">
         <v>73</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A32" s="8">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A32" s="9">
         <v>74</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A33" s="8">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A33" s="9">
         <v>79</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A34" s="8">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A34" s="9">
         <v>80</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A35" s="8">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A35" s="9">
         <v>88</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A36" s="8">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A36" s="9">
         <v>95</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A37" s="8">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A37" s="9">
         <v>98</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A38" s="8">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A38" s="9">
         <v>101</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A39" s="8">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A39" s="9">
         <v>102</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A40" s="8">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A40" s="9">
         <v>105</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A41" s="8">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A41" s="9">
         <v>106</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A42" s="8">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A42" s="9">
         <v>107</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A43" s="8">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A43" s="9">
         <v>109</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A44" s="8">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A44" s="9">
         <v>110</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A45" s="8">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A45" s="9">
         <v>111</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A46" s="8">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A46" s="9">
         <v>113</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A47" s="8">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A47" s="9">
         <v>115</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A48" s="8">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A48" s="9">
         <v>117</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A49" s="8">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A49" s="9">
         <v>119</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A50" s="8">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A50" s="9">
         <v>123</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A51" s="8">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A51" s="9">
         <v>137</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A52" s="8">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A52" s="9">
         <v>138</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A53" s="8">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A53" s="9">
         <v>139</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A54" s="8">
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A54" s="9">
         <v>143</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A55" s="8">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A55" s="9">
         <v>161</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A56" s="8">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A56" s="9">
         <v>162</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A57" s="8">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A57" s="9">
         <v>163</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A58" s="8">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A58" s="9">
         <v>164</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A59" s="8">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A59" s="9">
         <v>174</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A60" s="8">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A60" s="9">
         <v>177</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A61" s="8">
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A61" s="9">
         <v>178</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A62" s="8">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A62" s="9">
         <v>179</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="9" t="s">
+      <c r="B62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A63" s="8">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A63" s="9">
         <v>191</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="B63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A64" s="8">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A64" s="9">
         <v>194</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="B64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A65" s="8">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A65" s="9">
         <v>199</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="9" t="s">
+      <c r="B65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A66" s="8">
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A66" s="9">
         <v>201</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A67" s="8">
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A67" s="9">
         <v>202</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A68" s="8">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A68" s="9">
         <v>204</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A69" s="8">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A69" s="9">
         <v>206</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A70" s="8">
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A70" s="9">
         <v>209</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="B70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A71" s="8">
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A71" s="9">
         <v>210</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A72" s="8">
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A72" s="9">
         <v>213</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="9" t="s">
+      <c r="B72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A73" s="8">
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A73" s="9">
         <v>220</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A74" s="8">
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A74" s="9">
         <v>245</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="B74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A75" s="8">
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A75" s="9">
         <v>347</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A76" s="8">
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A76" s="9">
         <v>363</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A77" s="8">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A77" s="9">
         <v>369</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A78" s="8">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A78" s="9">
         <v>370</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="B78" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A79" s="8">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A79" s="9">
         <v>372</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="B79" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A80" s="8">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A80" s="9">
         <v>389</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A81" s="8">
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A81" s="9">
         <v>427</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A82" s="8">
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A82" s="9">
         <v>434</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A83" s="8">
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A83" s="9">
         <v>435</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A84" s="8">
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A84" s="9">
         <v>443</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="B84" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A85" s="8">
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A85" s="9">
         <v>444</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="B85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A86" s="8">
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A86" s="9">
         <v>445</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A87" s="8">
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A87" s="9">
         <v>464</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A88" s="8">
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A88" s="9">
         <v>465</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A89" s="8">
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A89" s="9">
         <v>468</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A90" s="8">
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A90" s="9">
         <v>487</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="9" t="s">
+      <c r="B90" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A91" s="8">
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A91" s="9">
         <v>488</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A92" s="8">
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A92" s="9">
         <v>496</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A93" s="8">
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A93" s="9">
         <v>500</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A94" s="8">
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A94" s="9">
         <v>512</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A95" s="8">
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A95" s="9">
         <v>512</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A96" s="8">
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A96" s="9">
         <v>513</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A97" s="8">
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A97" s="9">
         <v>513</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A98" s="8">
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A98" s="9">
         <v>514</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A99" s="8">
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A99" s="9">
         <v>514</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A100" s="8">
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A100" s="9">
         <v>515</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A101" s="8">
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A101" s="9">
         <v>517</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A102" s="8">
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A102" s="9">
         <v>518</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A103" s="8">
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A103" s="9">
         <v>519</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="9" t="s">
+      <c r="B103" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A104" s="8">
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A104" s="9">
         <v>520</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A105" s="8">
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A105" s="9">
         <v>520</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A106" s="8">
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A106" s="9">
         <v>521</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="B106" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A107" s="8">
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A107" s="9">
         <v>525</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A108" s="8">
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A108" s="9">
         <v>526</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A109" s="8">
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A109" s="9">
         <v>530</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A110" s="8">
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A110" s="9">
         <v>531</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A111" s="8">
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A111" s="9">
         <v>532</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A112" s="8">
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A112" s="9">
         <v>533</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A113" s="8">
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A113" s="9">
         <v>535</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="9" t="s">
+      <c r="B113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A114" s="8">
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A114" s="9">
         <v>538</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="9" t="s">
+      <c r="B114" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A115" s="8">
+      <c r="E114" s="8"/>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A115" s="9">
         <v>540</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A116" s="8">
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A116" s="9">
         <v>543</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A117" s="8">
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A117" s="9">
         <v>544</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A118" s="8">
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A118" s="9">
         <v>546</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="B118" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A119" s="8">
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A119" s="9">
         <v>547</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A120" s="8">
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A120" s="9">
         <v>548</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="9" t="s">
+      <c r="B120" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A121" s="8">
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A121" s="9">
         <v>554</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="B121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A122" s="8">
+      <c r="E121" s="8"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A122" s="9">
         <v>556</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="9" t="s">
+      <c r="B122" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A123" s="8">
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A123" s="9">
         <v>563</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="9" t="s">
+      <c r="B123" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A124" s="8">
+      <c r="E123" s="8"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A124" s="9">
         <v>565</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="9" t="s">
+      <c r="B124" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A125" s="8">
+      <c r="E124" s="8"/>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A125" s="9">
         <v>587</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="9" t="s">
+      <c r="B125" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A126" s="8">
+      <c r="E125" s="8"/>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A126" s="9">
         <v>610</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="B126" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A127" s="8">
+      <c r="E126" s="8"/>
+    </row>
+    <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A127" s="9">
         <v>611</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="9" t="s">
+      <c r="B127" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A128" s="8">
+      <c r="E127" s="8"/>
+    </row>
+    <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A128" s="9">
         <v>612</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="B128" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A129" s="8">
+      <c r="E128" s="8"/>
+    </row>
+    <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A129" s="9">
         <v>616</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A130" s="8">
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A130" s="9">
         <v>631</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B130" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A131" s="8">
+      <c r="E130" s="8"/>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A131" s="9">
         <v>636</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="B131" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A132" s="8">
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A132" s="9">
         <v>674</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="9" t="s">
+      <c r="B132" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A133" s="8">
+      <c r="E132" s="8"/>
+    </row>
+    <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A133" s="9">
         <v>694</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="9" t="s">
+      <c r="B133" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A134" s="8">
+      <c r="E133" s="8"/>
+    </row>
+    <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A134" s="9">
         <v>749</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="9" t="s">
+      <c r="B134" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A135" s="8">
+      <c r="E134" s="8"/>
+    </row>
+    <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A135" s="9">
         <v>750</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="B135" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A136" s="8">
+      <c r="E135" s="8"/>
+    </row>
+    <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A136" s="9">
         <v>765</v>
       </c>
-      <c r="B136" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="9" t="s">
+      <c r="B136" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A137" s="8">
+      <c r="E136" s="8"/>
+    </row>
+    <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A137" s="9">
         <v>767</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" s="9" t="s">
+      <c r="B137" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A138" s="8">
+      <c r="E137" s="8"/>
+    </row>
+    <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A138" s="9">
         <v>808</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="B138" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A139" s="8">
+      <c r="E138" s="8"/>
+    </row>
+    <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A139" s="9">
         <v>871</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A140" s="8">
+      <c r="E139" s="8"/>
+    </row>
+    <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A140" s="9">
         <v>873</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A141" s="8">
+      <c r="E140" s="8"/>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A141" s="9">
         <v>901</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A142" s="8">
+      <c r="E141" s="8"/>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A142" s="9">
         <v>953</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" s="9" t="s">
+      <c r="B142" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A143" s="8">
+      <c r="E142" s="8"/>
+    </row>
+    <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A143" s="9">
         <v>992</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" s="9" t="s">
+      <c r="B143" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A144" s="8">
+      <c r="E143" s="8"/>
+    </row>
+    <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A144" s="9">
         <v>993</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" s="9" t="s">
+      <c r="B144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A145" s="8">
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A145" s="9">
         <v>994</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" s="9" t="s">
+      <c r="B145" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A146" s="8">
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A146" s="9">
         <v>995</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" s="9" t="s">
+      <c r="B146" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A147" s="8">
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A147" s="9">
         <v>1080</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="9" t="s">
+      <c r="B147" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A148" s="8">
+      <c r="E147" s="8"/>
+    </row>
+    <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A148" s="9">
         <v>1127</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A149" s="8">
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A149" s="9">
         <v>1178</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A150" s="8">
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A150" s="9">
         <v>1236</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" s="9" t="s">
+      <c r="B150" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A151" s="8">
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A151" s="9">
         <v>1300</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="9" t="s">
+      <c r="B151" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A152" s="8">
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A152" s="9">
         <v>1313</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A153" s="8">
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A153" s="9">
         <v>1433</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="9" t="s">
+      <c r="B153" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A154" s="8">
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A154" s="9">
         <v>1434</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="9" t="s">
+      <c r="B154" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A155" s="8">
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A155" s="9">
         <v>1494</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" s="9" t="s">
+      <c r="B155" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A156" s="8">
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A156" s="9">
         <v>1512</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" s="9" t="s">
+      <c r="B156" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D156" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A157" s="8">
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A157" s="9">
         <v>1524</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="9" t="s">
+      <c r="B157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A158" s="8">
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A158" s="9">
         <v>1525</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="9" t="s">
+      <c r="B158" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A159" s="8">
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A159" s="9">
         <v>1529</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A160" s="8">
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A160" s="9">
         <v>1645</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="9" t="s">
+      <c r="B160" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A161" s="8">
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A161" s="9">
         <v>1646</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" s="9" t="s">
+      <c r="B161" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A162" s="8">
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A162" s="9">
         <v>1649</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" s="9" t="s">
+      <c r="B162" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E162" s="4"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A163" s="8">
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A163" s="9">
         <v>1701</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" s="9" t="s">
+      <c r="B163" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A164" s="8">
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A164" s="9">
         <v>1718</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="9" t="s">
+      <c r="B164" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A165" s="8">
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A165" s="9">
         <v>1719</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="9" t="s">
+      <c r="B165" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A166" s="8">
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A166" s="9">
         <v>1720</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="9" t="s">
+      <c r="B166" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A167" s="8">
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A167" s="9">
         <v>1758</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="9" t="s">
+      <c r="B167" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="D167" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A168" s="8">
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A168" s="9">
         <v>1759</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="D168" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A169" s="8">
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A169" s="9">
         <v>1789</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="9" t="s">
+      <c r="B169" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A170" s="8">
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A170" s="9">
         <v>1812</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="9" t="s">
+      <c r="B170" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A171" s="8">
+      <c r="E170" s="8"/>
+    </row>
+    <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A171" s="9">
         <v>1813</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="9" t="s">
+      <c r="B171" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A172" s="8">
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A172" s="9">
         <v>1911</v>
       </c>
-      <c r="B172" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="9" t="s">
+      <c r="B172" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E172" s="4"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A173" s="8">
+      <c r="E172" s="8"/>
+    </row>
+    <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A173" s="9">
         <v>1985</v>
       </c>
-      <c r="B173" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="9" t="s">
+      <c r="B173" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A174" s="8">
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A174" s="9">
         <v>1986</v>
       </c>
-      <c r="B174" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="9" t="s">
+      <c r="B174" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A175" s="8">
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A175" s="9">
         <v>1997</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="9" t="s">
+      <c r="B175" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D175" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A176" s="8">
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A176" s="9">
         <v>2003</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A177" s="8">
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A177" s="9">
         <v>2049</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="9" t="s">
+      <c r="B177" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="D177" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A178" s="8">
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A178" s="9">
         <v>2102</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="9" t="s">
+      <c r="B178" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D178" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A179" s="8">
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A179" s="9">
         <v>2103</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="9" t="s">
+      <c r="B179" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A180" s="8">
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A180" s="9">
         <v>2104</v>
       </c>
-      <c r="B180" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="9" t="s">
+      <c r="B180" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A181" s="8">
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A181" s="9">
         <v>2150</v>
       </c>
-      <c r="B181" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="9" t="s">
+      <c r="B181" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D181" s="11" t="s">
+      <c r="D181" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A182" s="8">
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A182" s="9">
         <v>2401</v>
       </c>
-      <c r="B182" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="9" t="s">
+      <c r="B182" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A183" s="8">
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A183" s="9">
         <v>2430</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="D183" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A184" s="8">
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A184" s="9">
         <v>2430</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A185" s="8">
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A185" s="9">
         <v>2431</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="E185" s="4"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A186" s="8">
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A186" s="9">
         <v>2431</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E186" s="4"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A187" s="8">
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A187" s="9">
         <v>2432</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E187" s="4"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A188" s="8">
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A188" s="9">
         <v>2433</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A189" s="8">
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A189" s="9">
         <v>2433</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="D189" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A190" s="8">
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A190" s="9">
         <v>2600</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="9" t="s">
+      <c r="B190" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A191" s="8">
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A191" s="9">
         <v>2601</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C191" s="9" t="s">
+      <c r="B191" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A192" s="8">
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A192" s="9">
         <v>2602</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C192" s="9" t="s">
+      <c r="B192" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A193" s="8">
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A193" s="9">
         <v>2603</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="9" t="s">
+      <c r="B193" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A194" s="8">
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A194" s="9">
         <v>2604</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" s="9" t="s">
+      <c r="B194" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A195" s="8">
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A195" s="9">
         <v>2605</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195" s="9" t="s">
+      <c r="B195" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A196" s="8">
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A196" s="9">
         <v>2606</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="9" t="s">
+      <c r="B196" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A197" s="8">
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A197" s="9">
         <v>2809</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C197" s="9" t="s">
+      <c r="B197" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D197" s="11" t="s">
+      <c r="D197" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A198" s="8">
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A198" s="9">
         <v>2988</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" s="9" t="s">
+      <c r="B198" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="D198" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A199" s="8">
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A199" s="9">
         <v>3128</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="D199" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A200" s="8">
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A200" s="9">
         <v>3130</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" s="9" t="s">
+      <c r="B200" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A201" s="8">
+      <c r="E200" s="8"/>
+    </row>
+    <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A201" s="9">
         <v>3306</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" s="9" t="s">
+      <c r="B201" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D201" s="11" t="s">
+      <c r="D201" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A202" s="8">
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A202" s="9">
         <v>3346</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="9" t="s">
+      <c r="B202" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="D202" s="11" t="s">
+      <c r="D202" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E202" s="4"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A203" s="8">
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A203" s="9">
         <v>3389</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C203" s="9" t="s">
+      <c r="B203" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D203" s="11" t="s">
+      <c r="D203" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E203" s="4"/>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A204" s="8">
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A204" s="9">
         <v>3455</v>
       </c>
-      <c r="B204" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" s="9" t="s">
+      <c r="B204" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="D204" s="11" t="s">
+      <c r="D204" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E204" s="4"/>
-    </row>
-    <row r="205" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A205" s="8">
+      <c r="E204" s="8"/>
+    </row>
+    <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A205" s="9">
         <v>4011</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" s="9" t="s">
+      <c r="B205" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E205" s="4"/>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A206" s="8">
+      <c r="E205" s="8"/>
+    </row>
+    <row r="206" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A206" s="9">
         <v>4321</v>
       </c>
-      <c r="B206" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C206" s="9" t="s">
+      <c r="B206" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="D206" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="E206" s="4"/>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A207" s="8">
+      <c r="E206" s="8"/>
+    </row>
+    <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A207" s="9">
         <v>4444</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207" s="9" t="s">
+      <c r="B207" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D207" s="11" t="s">
+      <c r="D207" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="E207" s="4"/>
-    </row>
-    <row r="208" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A208" s="8">
+      <c r="E207" s="8"/>
+    </row>
+    <row r="208" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A208" s="9">
         <v>4557</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D208" s="11" t="s">
+      <c r="D208" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="E208" s="4"/>
-    </row>
-    <row r="209" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A209" s="8">
+      <c r="E208" s="8"/>
+    </row>
+    <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A209" s="9">
         <v>4559</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C209" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D209" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="E209" s="4"/>
-    </row>
-    <row r="210" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A210" s="8">
+      <c r="E209" s="8"/>
+    </row>
+    <row r="210" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A210" s="9">
         <v>5002</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C210" s="9" t="s">
+      <c r="B210" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D210" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="E210" s="4"/>
-    </row>
-    <row r="211" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A211" s="8">
+      <c r="E210" s="8"/>
+    </row>
+    <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A211" s="9">
         <v>5232</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="9" t="s">
+      <c r="B211" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="E211" s="4"/>
-    </row>
-    <row r="212" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A212" s="8">
+      <c r="E211" s="8"/>
+    </row>
+    <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A212" s="9">
         <v>5308</v>
       </c>
-      <c r="B212" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="9" t="s">
+      <c r="B212" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D212" s="11" t="s">
+      <c r="D212" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="E212" s="4"/>
-    </row>
-    <row r="213" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A213" s="8">
+      <c r="E212" s="8"/>
+    </row>
+    <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A213" s="9">
         <v>5354</v>
       </c>
-      <c r="B213" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" s="9" t="s">
+      <c r="B213" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D213" s="11" t="s">
+      <c r="D213" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="E213" s="4"/>
-    </row>
-    <row r="214" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A214" s="8">
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A214" s="9">
         <v>5355</v>
       </c>
-      <c r="B214" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" s="9" t="s">
+      <c r="B214" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="D214" s="11" t="s">
+      <c r="D214" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="E214" s="4"/>
-    </row>
-    <row r="215" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A215" s="8">
+      <c r="E214" s="8"/>
+    </row>
+    <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A215" s="9">
         <v>5432</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C215" s="9" t="s">
+      <c r="B215" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D215" s="11" t="s">
+      <c r="D215" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A216" s="8">
+      <c r="E215" s="8"/>
+    </row>
+    <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A216" s="9">
         <v>5680</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D216" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="E216" s="4"/>
-    </row>
-    <row r="217" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A217" s="8">
+      <c r="E216" s="8"/>
+    </row>
+    <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A217" s="9">
         <v>5999</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C217" s="9" t="s">
+      <c r="B217" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D217" s="11" t="s">
+      <c r="D217" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="E217" s="4"/>
-    </row>
-    <row r="218" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A218" s="8">
+      <c r="E217" s="8"/>
+    </row>
+    <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A218" s="9">
         <v>6000</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D218" s="11" t="s">
+      <c r="D218" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="E218" s="4"/>
-    </row>
-    <row r="219" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A219" s="8">
+      <c r="E218" s="8"/>
+    </row>
+    <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A219" s="9">
         <v>6010</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D219" s="11" t="s">
+      <c r="D219" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E219" s="4"/>
-    </row>
-    <row r="220" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A220" s="8">
+      <c r="E219" s="8"/>
+    </row>
+    <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A220" s="9">
         <v>6667</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C220" s="9" t="s">
+      <c r="B220" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D220" s="11" t="s">
+      <c r="D220" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="E220" s="4"/>
-    </row>
-    <row r="221" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A221" s="8">
+      <c r="E220" s="8"/>
+    </row>
+    <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A221" s="9">
         <v>7000</v>
       </c>
-      <c r="B221" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C221" s="9" t="s">
+      <c r="B221" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="E221" s="4"/>
-    </row>
-    <row r="222" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A222" s="8">
+      <c r="E221" s="8"/>
+    </row>
+    <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A222" s="9">
         <v>7001</v>
       </c>
-      <c r="B222" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" s="9" t="s">
+      <c r="B222" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D222" s="11" t="s">
+      <c r="D222" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="E222" s="4"/>
-    </row>
-    <row r="223" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A223" s="8">
+      <c r="E222" s="8"/>
+    </row>
+    <row r="223" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A223" s="9">
         <v>7002</v>
       </c>
-      <c r="B223" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C223" s="9" t="s">
+      <c r="B223" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="D223" s="11" t="s">
+      <c r="D223" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="E223" s="4"/>
-    </row>
-    <row r="224" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A224" s="8">
+      <c r="E223" s="8"/>
+    </row>
+    <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A224" s="9">
         <v>7003</v>
       </c>
-      <c r="B224" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C224" s="9" t="s">
+      <c r="B224" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D224" s="11" t="s">
+      <c r="D224" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E224" s="4"/>
-    </row>
-    <row r="225" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A225" s="8">
+      <c r="E224" s="8"/>
+    </row>
+    <row r="225" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A225" s="9">
         <v>7004</v>
       </c>
-      <c r="B225" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" s="9" t="s">
+      <c r="B225" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D225" s="11" t="s">
+      <c r="D225" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="E225" s="4"/>
-    </row>
-    <row r="226" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A226" s="8">
+      <c r="E225" s="8"/>
+    </row>
+    <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A226" s="9">
         <v>7005</v>
       </c>
-      <c r="B226" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C226" s="9" t="s">
+      <c r="B226" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="E226" s="4"/>
-    </row>
-    <row r="227" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A227" s="8">
+      <c r="E226" s="8"/>
+    </row>
+    <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A227" s="9">
         <v>7006</v>
       </c>
-      <c r="B227" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C227" s="9" t="s">
+      <c r="B227" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="D227" s="11" t="s">
+      <c r="D227" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="E227" s="4"/>
-    </row>
-    <row r="228" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A228" s="8">
+      <c r="E227" s="8"/>
+    </row>
+    <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A228" s="9">
         <v>7007</v>
       </c>
-      <c r="B228" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C228" s="9" t="s">
+      <c r="B228" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D228" s="11" t="s">
+      <c r="D228" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="E228" s="4"/>
-    </row>
-    <row r="229" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A229" s="8">
+      <c r="E228" s="8"/>
+    </row>
+    <row r="229" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A229" s="9">
         <v>7008</v>
       </c>
-      <c r="B229" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C229" s="9" t="s">
+      <c r="B229" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="D229" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A230" s="8">
+      <c r="E229" s="8"/>
+    </row>
+    <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A230" s="9">
         <v>7009</v>
       </c>
-      <c r="B230" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C230" s="9" t="s">
+      <c r="B230" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="D230" s="11" t="s">
+      <c r="D230" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="E230" s="4"/>
-    </row>
-    <row r="231" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A231" s="8">
+      <c r="E230" s="8"/>
+    </row>
+    <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A231" s="9">
         <v>7100</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A232" s="8">
+      <c r="E231" s="8"/>
+    </row>
+    <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A232" s="9">
         <v>7666</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="D232" s="11" t="s">
+      <c r="D232" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="E232" s="4"/>
-    </row>
-    <row r="233" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A233" s="8">
+      <c r="E232" s="8"/>
+    </row>
+    <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A233" s="9">
         <v>8008</v>
       </c>
-      <c r="B233" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C233" s="9" t="s">
+      <c r="B233" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D233" s="11" t="s">
+      <c r="D233" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="E233" s="4"/>
-    </row>
-    <row r="234" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A234" s="8">
+      <c r="E233" s="8"/>
+    </row>
+    <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A234" s="9">
         <v>8080</v>
       </c>
-      <c r="B234" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C234" s="9" t="s">
+      <c r="B234" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="D234" s="11" t="s">
+      <c r="D234" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A235" s="8">
+      <c r="E234" s="8"/>
+    </row>
+    <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A235" s="9">
         <v>8081</v>
       </c>
-      <c r="B235" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C235" s="9" t="s">
+      <c r="B235" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D235" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="E235" s="4"/>
-    </row>
-    <row r="236" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A236" s="8">
+      <c r="E235" s="8"/>
+    </row>
+    <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A236" s="9">
         <v>9100</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="D236" s="11" t="s">
+      <c r="D236" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="E236" s="4"/>
-    </row>
-    <row r="237" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A237" s="8">
+      <c r="E236" s="8"/>
+    </row>
+    <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A237" s="9">
         <v>9359</v>
       </c>
-      <c r="B237" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C237" s="9" t="s">
+      <c r="B237" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="E237" s="4"/>
-    </row>
-    <row r="238" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A238" s="8">
+      <c r="E237" s="8"/>
+    </row>
+    <row r="238" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A238" s="9">
         <v>9876</v>
       </c>
-      <c r="B238" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C238" s="9" t="s">
+      <c r="B238" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D238" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="E238" s="4"/>
-    </row>
-    <row r="239" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A239" s="8">
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A239" s="9">
         <v>10080</v>
       </c>
-      <c r="B239" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C239" s="9" t="s">
+      <c r="B239" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="D239" s="11" t="s">
+      <c r="D239" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="E239" s="4"/>
-    </row>
-    <row r="240" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A240" s="8">
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A240" s="9">
         <v>10081</v>
       </c>
-      <c r="B240" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C240" s="9" t="s">
+      <c r="B240" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="D240" s="11" t="s">
+      <c r="D240" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="E240" s="4"/>
-    </row>
-    <row r="241" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A241" s="8">
+      <c r="E240" s="8"/>
+    </row>
+    <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A241" s="9">
         <v>10082</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="D241" s="11" t="s">
+      <c r="D241" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="E241" s="4"/>
-    </row>
-    <row r="242" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A242" s="8">
+      <c r="E241" s="8"/>
+    </row>
+    <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A242" s="9">
         <v>10083</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="D242" s="11" t="s">
+      <c r="D242" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="E242" s="4"/>
-    </row>
-    <row r="243" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A243" s="8">
+      <c r="E242" s="8"/>
+    </row>
+    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A243" s="9">
         <v>11371</v>
       </c>
-      <c r="B243" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" s="9" t="s">
+      <c r="B243" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="D243" s="11" t="s">
+      <c r="D243" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="E243" s="4"/>
-    </row>
-    <row r="244" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A244" s="8">
+      <c r="E243" s="8"/>
+    </row>
+    <row r="244" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A244" s="9">
         <v>11720</v>
       </c>
-      <c r="B244" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" s="9" t="s">
+      <c r="B244" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D244" s="11" t="s">
+      <c r="D244" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="E244" s="4"/>
-    </row>
-    <row r="245" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A245" s="8">
+      <c r="E244" s="8"/>
+    </row>
+    <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A245" s="9">
         <v>13720</v>
       </c>
-      <c r="B245" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C245" s="9" t="s">
+      <c r="B245" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="D245" s="11" t="s">
+      <c r="D245" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="E245" s="4"/>
-    </row>
-    <row r="246" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A246" s="8">
+      <c r="E245" s="8"/>
+    </row>
+    <row r="246" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A246" s="9">
         <v>13721</v>
       </c>
-      <c r="B246" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C246" s="9" t="s">
+      <c r="B246" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D246" s="11" t="s">
+      <c r="D246" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="E246" s="4"/>
-    </row>
-    <row r="247" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A247" s="8">
+      <c r="E246" s="8"/>
+    </row>
+    <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A247" s="9">
         <v>13722</v>
       </c>
-      <c r="B247" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" s="9" t="s">
+      <c r="B247" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="E247" s="4"/>
-    </row>
-    <row r="248" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A248" s="8">
+      <c r="E247" s="8"/>
+    </row>
+    <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A248" s="9">
         <v>13724</v>
       </c>
-      <c r="B248" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" s="9" t="s">
+      <c r="B248" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="D248" s="11" t="s">
+      <c r="D248" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="E248" s="4"/>
-    </row>
-    <row r="249" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A249" s="8">
+      <c r="E248" s="8"/>
+    </row>
+    <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A249" s="9">
         <v>13782</v>
       </c>
-      <c r="B249" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="9" t="s">
+      <c r="B249" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="D249" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="E249" s="4"/>
-    </row>
-    <row r="250" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A250" s="8">
+      <c r="E249" s="8"/>
+    </row>
+    <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A250" s="9">
         <v>13783</v>
       </c>
-      <c r="B250" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C250" s="9" t="s">
+      <c r="B250" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D250" s="11" t="s">
+      <c r="D250" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="E250" s="4"/>
-    </row>
-    <row r="251" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A251" s="8">
+      <c r="E250" s="8"/>
+    </row>
+    <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A251" s="9">
         <v>20011</v>
       </c>
-      <c r="B251" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" s="9" t="s">
+      <c r="B251" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D251" s="11" t="s">
+      <c r="D251" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="E251" s="4"/>
-    </row>
-    <row r="252" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A252" s="8">
+      <c r="E251" s="8"/>
+    </row>
+    <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A252" s="9">
         <v>20012</v>
       </c>
-      <c r="B252" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" s="9" t="s">
+      <c r="B252" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="E252" s="4"/>
-    </row>
-    <row r="253" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A253" s="8">
+      <c r="E252" s="8"/>
+    </row>
+    <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A253" s="9">
         <v>22273</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" s="9" t="s">
+      <c r="B253" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="D253" s="11" t="s">
+      <c r="D253" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="E253" s="4"/>
-    </row>
-    <row r="254" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A254" s="8">
+      <c r="E253" s="8"/>
+    </row>
+    <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A254" s="9">
         <v>22289</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="D254" s="11" t="s">
+      <c r="D254" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="E254" s="4"/>
-    </row>
-    <row r="255" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A255" s="8">
+      <c r="E254" s="8"/>
+    </row>
+    <row r="255" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A255" s="9">
         <v>22305</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="C255" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="D255" s="11" t="s">
+      <c r="D255" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="E255" s="4"/>
-    </row>
-    <row r="256" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A256" s="8">
+      <c r="E255" s="8"/>
+    </row>
+    <row r="256" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A256" s="9">
         <v>22321</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="D256" s="11" t="s">
+      <c r="D256" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="E256" s="4"/>
-    </row>
-    <row r="257" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A257" s="8">
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A257" s="9">
         <v>24554</v>
       </c>
-      <c r="B257" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C257" s="9" t="s">
+      <c r="B257" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D257" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="E257" s="4"/>
-    </row>
-    <row r="258" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A258" s="8">
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A258" s="9">
         <v>26000</v>
       </c>
-      <c r="B258" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C258" s="9" t="s">
+      <c r="B258" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="D258" s="11" t="s">
+      <c r="D258" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="E258" s="4"/>
-    </row>
-    <row r="259" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A259" s="8">
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A259" s="9">
         <v>26208</v>
       </c>
-      <c r="B259" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C259" s="9" t="s">
+      <c r="B259" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="D259" s="11" t="s">
+      <c r="D259" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="E259" s="4"/>
-    </row>
-    <row r="260" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A260" s="8">
+      <c r="E259" s="8"/>
+    </row>
+    <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A260" s="9">
         <v>27374</v>
       </c>
-      <c r="B260" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C260" s="9" t="s">
+      <c r="B260" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="D260" s="11" t="s">
+      <c r="D260" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="E260" s="4"/>
-    </row>
-    <row r="261" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A261" s="8">
+      <c r="E260" s="8"/>
+    </row>
+    <row r="261" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A261" s="9">
         <v>33434</v>
       </c>
-      <c r="B261" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C261" s="9" t="s">
+      <c r="B261" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="D261" s="11" t="s">
+      <c r="D261" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="E261" s="4"/>
-    </row>
-    <row r="262" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A262" s="8">
+      <c r="E261" s="8"/>
+    </row>
+    <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A262" s="9">
         <v>60177</v>
       </c>
-      <c r="B262" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C262" s="9" t="s">
+      <c r="B262" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="D262" s="11" t="s">
+      <c r="D262" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="E262" s="4"/>
-    </row>
-    <row r="263" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A263" s="12">
+      <c r="E262" s="8"/>
+    </row>
+    <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A263" s="13">
         <v>60179</v>
       </c>
       <c r="B263" s="7" t="s">
@@ -9190,10 +9234,10 @@
       <c r="C263" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D263" s="13" t="s">
+      <c r="D263" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="E263" s="4"/>
+      <c r="E263" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9209,14 +9253,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="47.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
